--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_50.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,292 +488,290 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.8, 13.6)]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:05.800000', '0:00:15.900000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.64, 23.8)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.56, 25.4)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:02.360000', '0:00:11.660000'), ('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:09.100000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.05796064400715564</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>[['D:min', 'A:7/E', 'D:min']]</t>
@@ -776,429 +779,381 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3760683760683761</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[['F/2', 'C', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.4, 41.7)]</t>
+          <t>[('0:01:42.174263', '0:01:55.003287')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:57.758000', '0:01:05.204000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3513071895424837</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0882943143812709</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(23.04, 32.8)]</t>
+          <t>[['E', 'E/7', 'C#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(49.06, 59.7)]</t>
+          <t>[('0:00:07.960000', '0:00:14.540000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.501791', '0:00:15.122562')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[('0:01:27.200000', '0:01:37.220000'), ('0:00:41.380000', '0:00:43.340000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:27.360000', '0:00:34.920000'), ('0:01:19.420000', '0:01:26.020000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(11.0, 66.82)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(11.94, 67.8)]</t>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.36, 24.16)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.64, 23.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
